--- a/data/trans_orig/LAWTONB_2R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>33875</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24990</v>
+        <v>24925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44390</v>
+        <v>43757</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2945914491826497</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2173246217542623</v>
+        <v>0.2167575189339059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3860334661745276</v>
+        <v>0.3805290529422469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -765,19 +765,19 @@
         <v>45744</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34601</v>
+        <v>35063</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57926</v>
+        <v>57348</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3059107111496785</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2313921730771464</v>
+        <v>0.2344807055721289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3873763760413136</v>
+        <v>0.3835072758924601</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -786,19 +786,19 @@
         <v>79619</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65057</v>
+        <v>65638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94808</v>
+        <v>96202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3009902197795294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2459395466147426</v>
+        <v>0.2481373341337277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3584103176965207</v>
+        <v>0.3636788574767592</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>81114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70599</v>
+        <v>71232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89999</v>
+        <v>90064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7054085508173503</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6139665338254724</v>
+        <v>0.6194709470577526</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7826753782457374</v>
+        <v>0.783242481066094</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>107</v>
@@ -836,19 +836,19 @@
         <v>103791</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91609</v>
+        <v>92187</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>114934</v>
+        <v>114472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6940892888503215</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.612623623958687</v>
+        <v>0.6164927241075401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7686078269228538</v>
+        <v>0.7655192944278713</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -857,19 +857,19 @@
         <v>184905</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>169716</v>
+        <v>168322</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199467</v>
+        <v>198886</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6990097802204706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6415896823034792</v>
+        <v>0.6363211425232407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7540604533852574</v>
+        <v>0.7518626658662723</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>48022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37914</v>
+        <v>37644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59141</v>
+        <v>60003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3291688124937341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2598859380583557</v>
+        <v>0.2580348634893383</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4053866415145361</v>
+        <v>0.4112915402857004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -982,19 +982,19 @@
         <v>68544</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54417</v>
+        <v>55446</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82041</v>
+        <v>81982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3752124362690255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2978820851428706</v>
+        <v>0.3035139980135162</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4490962876702897</v>
+        <v>0.4487732966651072</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>111</v>
@@ -1003,19 +1003,19 @@
         <v>116566</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100119</v>
+        <v>99878</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134751</v>
+        <v>135662</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3547684440688176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3047141670541406</v>
+        <v>0.3039799024158303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4101169488651219</v>
+        <v>0.4128896537052855</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>97867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86748</v>
+        <v>85886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107975</v>
+        <v>108245</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6708311875062659</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5946133584854639</v>
+        <v>0.5887084597142995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.740114061941644</v>
+        <v>0.7419651365106618</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>108</v>
@@ -1053,19 +1053,19 @@
         <v>114136</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100639</v>
+        <v>100698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128263</v>
+        <v>127234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6247875637309745</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5509037123297102</v>
+        <v>0.5512267033348928</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7021179148571294</v>
+        <v>0.6964860019864837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>205</v>
@@ -1074,19 +1074,19 @@
         <v>212002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>193817</v>
+        <v>192906</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>228449</v>
+        <v>228690</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6452315559311824</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5898830511348782</v>
+        <v>0.5871103462947145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6952858329458594</v>
+        <v>0.6960200975841698</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>21576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14174</v>
+        <v>13889</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31393</v>
+        <v>30429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2067219172002902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1358009717272579</v>
+        <v>0.1330757222756276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.300779923920735</v>
+        <v>0.2915498157375561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>46464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36238</v>
+        <v>36194</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58086</v>
+        <v>57922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3420270693811827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2667530018142169</v>
+        <v>0.2664232714874331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4275751123755977</v>
+        <v>0.4263707963022701</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1220,19 +1220,19 @@
         <v>68040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54357</v>
+        <v>53800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82006</v>
+        <v>82350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.283239753888718</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2262772182470011</v>
+        <v>0.2239603058879263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3413753740902454</v>
+        <v>0.342809534221125</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>82795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72978</v>
+        <v>73942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>90197</v>
+        <v>90482</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7932780827997098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6992200760792654</v>
+        <v>0.7084501842624441</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8641990282727422</v>
+        <v>0.8669242777243726</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1270,19 +1270,19 @@
         <v>89386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>77764</v>
+        <v>77928</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99612</v>
+        <v>99656</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6579729306188172</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5724248876244025</v>
+        <v>0.5736292036977299</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7332469981857831</v>
+        <v>0.7335767285125669</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>176</v>
@@ -1291,19 +1291,19 @@
         <v>172181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>158215</v>
+        <v>157871</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185864</v>
+        <v>186421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.716760246111282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6586246259097546</v>
+        <v>0.6571904657788751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7737227817529989</v>
+        <v>0.7760396941120737</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>28736</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20277</v>
+        <v>19598</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37567</v>
+        <v>38406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2094200491361915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1477737075734673</v>
+        <v>0.142822167911886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2737803189426928</v>
+        <v>0.2798948661377629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1416,19 +1416,19 @@
         <v>71992</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58561</v>
+        <v>57920</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86472</v>
+        <v>85470</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3448255056433017</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2804968336459587</v>
+        <v>0.2774265284921753</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4141849821672667</v>
+        <v>0.4093843664579819</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1437,19 +1437,19 @@
         <v>100728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85138</v>
+        <v>83986</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117908</v>
+        <v>116717</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2911253225749863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2460662364777808</v>
+        <v>0.2427377847182726</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3407800620851421</v>
+        <v>0.3373371166466678</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>108481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99650</v>
+        <v>98811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116940</v>
+        <v>117619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7905799508638085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7262196810573072</v>
+        <v>0.7201051338622371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8522262924265327</v>
+        <v>0.857177832088114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>134</v>
@@ -1487,19 +1487,19 @@
         <v>136785</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>122305</v>
+        <v>123307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150216</v>
+        <v>150857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6551744943566984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5858150178327333</v>
+        <v>0.5906156335420181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7195031663540412</v>
+        <v>0.7225734715078247</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>257</v>
@@ -1508,19 +1508,19 @@
         <v>245267</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228087</v>
+        <v>229278</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>260857</v>
+        <v>262009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7088746774250138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6592199379148578</v>
+        <v>0.6626628833533321</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7539337635222191</v>
+        <v>0.7572622152817272</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>132209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113715</v>
+        <v>114256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152169</v>
+        <v>153418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.263119522862979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.226313164836029</v>
+        <v>0.2273905489297035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3028448168486079</v>
+        <v>0.3053305863903671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -1633,19 +1633,19 @@
         <v>232744</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207572</v>
+        <v>209277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>256014</v>
+        <v>259970</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3438677704819641</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3066771923813669</v>
+        <v>0.3091955160175304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3782483052958333</v>
+        <v>0.384093332958462</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>356</v>
@@ -1654,19 +1654,19 @@
         <v>364953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>334884</v>
+        <v>334693</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>399234</v>
+        <v>394645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3094634848224977</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2839663798323573</v>
+        <v>0.2838048458762248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3385321764295615</v>
+        <v>0.3346412183309902</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>370257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>350297</v>
+        <v>349048</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>388751</v>
+        <v>388210</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.736880477137021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.697155183151392</v>
+        <v>0.694669413609633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.773686835163971</v>
+        <v>0.7726094510702965</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>444</v>
@@ -1704,19 +1704,19 @@
         <v>444098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>828</v>
@@ -1725,19 +1725,19 @@
         <v>814355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>780074</v>
+        <v>784663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>844424</v>
+        <v>844615</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6905365151775023</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6614678235704385</v>
+        <v>0.6653587816690097</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7160336201676427</v>
+        <v>0.7161951541237752</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>34305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23096</v>
+        <v>24359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45724</v>
+        <v>45662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.245828165211205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1655059217663707</v>
+        <v>0.174559434378914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3276586750435495</v>
+        <v>0.3272156674341927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -2090,19 +2090,19 @@
         <v>61935</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49899</v>
+        <v>50430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75339</v>
+        <v>74756</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.371341780963359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2991795167423285</v>
+        <v>0.3023591697850069</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4517095231683814</v>
+        <v>0.4482149321633686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2111,19 +2111,19 @@
         <v>96240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79947</v>
+        <v>80241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113546</v>
+        <v>113651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.314165322286395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2609796284036512</v>
+        <v>0.2619410325673668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3706609800835706</v>
+        <v>0.3710038606398133</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>105242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93823</v>
+        <v>93885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116451</v>
+        <v>115188</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.754171834788795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6723413249564505</v>
+        <v>0.6727843325658064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8344940782336293</v>
+        <v>0.8254405656210859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -2161,19 +2161,19 @@
         <v>104852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91448</v>
+        <v>92031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116888</v>
+        <v>116357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.628658219036641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5482904768316185</v>
+        <v>0.5517850678366314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7008204832576714</v>
+        <v>0.697640830214993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -2182,19 +2182,19 @@
         <v>210094</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>192788</v>
+        <v>192683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226387</v>
+        <v>226093</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6858346777136051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6293390199164296</v>
+        <v>0.6289961393601867</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7390203715963488</v>
+        <v>0.7380589674326333</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>45656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34956</v>
+        <v>34435</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57433</v>
+        <v>57587</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.294786105821147</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2257007821222186</v>
+        <v>0.222335295628703</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3708273701460636</v>
+        <v>0.3718210517335683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -2307,19 +2307,19 @@
         <v>89489</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74961</v>
+        <v>76289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103930</v>
+        <v>102934</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4675008998064838</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3916053842868078</v>
+        <v>0.3985430154110149</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5429444372338369</v>
+        <v>0.53773926206568</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -2328,19 +2328,19 @@
         <v>135145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116956</v>
+        <v>116908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>153356</v>
+        <v>153795</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3902560702697889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3377322058085436</v>
+        <v>0.3375924512732523</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4428450671474066</v>
+        <v>0.4441127054574224</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>109222</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97445</v>
+        <v>97291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119922</v>
+        <v>120443</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7052138941788531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6291726298539363</v>
+        <v>0.6281789482664318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7742992178777811</v>
+        <v>0.777664704371297</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>96</v>
@@ -2378,19 +2378,19 @@
         <v>101931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>87490</v>
+        <v>88486</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>116459</v>
+        <v>115131</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5324991001935162</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.457055562766163</v>
+        <v>0.46226073793432</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6083946157131922</v>
+        <v>0.6014569845889851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>194</v>
@@ -2399,19 +2399,19 @@
         <v>211153</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>192942</v>
+        <v>192503</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>229342</v>
+        <v>229390</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6097439297302112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5571549328525933</v>
+        <v>0.5558872945425777</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6622677941914559</v>
+        <v>0.6624075487267479</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>27940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18857</v>
+        <v>18627</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39592</v>
+        <v>39056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2697001320458222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1820233789512987</v>
+        <v>0.1797987886397188</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3821661197481213</v>
+        <v>0.3769913968019576</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -2524,19 +2524,19 @@
         <v>52916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42159</v>
+        <v>40296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65540</v>
+        <v>65126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3752377402098446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2989580124544953</v>
+        <v>0.2857506917456004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4647608211784997</v>
+        <v>0.4618273019961361</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -2545,19 +2545,19 @@
         <v>80856</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66050</v>
+        <v>65199</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98226</v>
+        <v>95266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3305412845638871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2700120333599793</v>
+        <v>0.2665360278236837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4015518699033814</v>
+        <v>0.3894493718869318</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>75658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64006</v>
+        <v>64542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>84741</v>
+        <v>84971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7302998679541778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.617833880251878</v>
+        <v>0.6230086031980425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8179766210487013</v>
+        <v>0.8202012113602812</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -2595,19 +2595,19 @@
         <v>88103</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75479</v>
+        <v>75893</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98860</v>
+        <v>100723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6247622597901554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5352391788215004</v>
+        <v>0.5381726980038638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7010419875455047</v>
+        <v>0.7142493082543997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>148</v>
@@ -2616,19 +2616,19 @@
         <v>163761</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>146391</v>
+        <v>149351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178567</v>
+        <v>179418</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6694587154361129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5984481300966182</v>
+        <v>0.6105506281130682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7299879666400207</v>
+        <v>0.733463972176316</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>42056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31575</v>
+        <v>31607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53265</v>
+        <v>55171</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2602237652423938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1953764061194979</v>
+        <v>0.1955747109272191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3295865676393176</v>
+        <v>0.3413780537839147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -2741,19 +2741,19 @@
         <v>82279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68003</v>
+        <v>67410</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97601</v>
+        <v>97516</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3375559527349615</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2789885124343026</v>
+        <v>0.2765547603526944</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4004150620501946</v>
+        <v>0.4000640031856263</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -2762,19 +2762,19 @@
         <v>124335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105996</v>
+        <v>106022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143252</v>
+        <v>143724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3067245399975148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2614853043821131</v>
+        <v>0.2615493663081798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3533913486347284</v>
+        <v>0.35455534081877</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>119557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108348</v>
+        <v>106442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130038</v>
+        <v>130006</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7397762347576062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6704134323606824</v>
+        <v>0.6586219462160856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8046235938805021</v>
+        <v>0.8044252890727814</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -2812,19 +2812,19 @@
         <v>161471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>146149</v>
+        <v>146234</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175747</v>
+        <v>176340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6624440472650385</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5995849379498054</v>
+        <v>0.5999359968143737</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7210114875656974</v>
+        <v>0.7234452396473057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -2833,19 +2833,19 @@
         <v>281028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>262111</v>
+        <v>261639</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>299367</v>
+        <v>299341</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6932754600024852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6466086513652715</v>
+        <v>0.64544465918123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7385146956178869</v>
+        <v>0.7384506336918202</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>149957</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127740</v>
+        <v>127896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172662</v>
+        <v>172620</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2679534505116735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.228255382775474</v>
+        <v>0.2285333646390411</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3085252517787235</v>
+        <v>0.308450760542425</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -2958,19 +2958,19 @@
         <v>286619</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>258240</v>
+        <v>258686</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>314442</v>
+        <v>313752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3857714804028418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3475762249137423</v>
+        <v>0.3481763183053287</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4232204200611187</v>
+        <v>0.4222916346772128</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>396</v>
@@ -2979,19 +2979,19 @@
         <v>436575</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>402763</v>
+        <v>400904</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>475669</v>
+        <v>469767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3351536975799512</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3091962648391992</v>
+        <v>0.3077689444602403</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3651658930548391</v>
+        <v>0.3606347514081517</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>409680</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -3029,19 +3029,19 @@
         <v>456356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>428533</v>
+        <v>429223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>484735</v>
+        <v>484289</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6142285195971583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5767795799388813</v>
+        <v>0.5777083653227872</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6524237750862577</v>
+        <v>0.6518236816946713</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>802</v>
@@ -3050,19 +3050,19 @@
         <v>866037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>826943</v>
+        <v>832845</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>899849</v>
+        <v>901708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6648463024200488</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6348341069451611</v>
+        <v>0.6393652485918484</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6908037351608008</v>
+        <v>0.6922310555397599</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>27778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19223</v>
+        <v>18901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36518</v>
+        <v>36822</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2031523295002004</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1405890311911286</v>
+        <v>0.1382293690252769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2670755536478244</v>
+        <v>0.2692965060938925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -3415,19 +3415,19 @@
         <v>60138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47341</v>
+        <v>46922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73959</v>
+        <v>73449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3468354387256383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2730276379425632</v>
+        <v>0.2706150484714808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4265419417880829</v>
+        <v>0.4236018253769209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -3436,19 +3436,19 @@
         <v>87916</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72891</v>
+        <v>72033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103511</v>
+        <v>105442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2834855786339431</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2350380248506905</v>
+        <v>0.2322695470010437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3337734702394471</v>
+        <v>0.3399997998143492</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>108956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100216</v>
+        <v>99912</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117511</v>
+        <v>117833</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7968476704997995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7329244463521759</v>
+        <v>0.7307034939061078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8594109688088716</v>
+        <v>0.8617706309747231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -3486,19 +3486,19 @@
         <v>113253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99432</v>
+        <v>99942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126050</v>
+        <v>126469</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6531645612743617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5734580582119171</v>
+        <v>0.5763981746230791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.726972362057437</v>
+        <v>0.7293849515285191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>221</v>
@@ -3507,19 +3507,19 @@
         <v>222209</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>206614</v>
+        <v>204683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237234</v>
+        <v>238092</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7165144213660569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6662265297605527</v>
+        <v>0.6600002001856509</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7649619751493095</v>
+        <v>0.7677304529989561</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>40909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31616</v>
+        <v>31861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52474</v>
+        <v>51669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.248023403737671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1916831066313379</v>
+        <v>0.1931634384285075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3181408489563584</v>
+        <v>0.3132571576738486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3632,19 +3632,19 @@
         <v>80165</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64949</v>
+        <v>65197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97013</v>
+        <v>95949</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3657777899046789</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2963486631119601</v>
+        <v>0.2974803953525143</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4426533445519831</v>
+        <v>0.4377992000497223</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -3653,19 +3653,19 @@
         <v>121074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103187</v>
+        <v>101921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140746</v>
+        <v>141297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3152120380007785</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2686425058181855</v>
+        <v>0.2653477094117542</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3664260281257433</v>
+        <v>0.367861462221368</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>124032</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112467</v>
+        <v>113272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133325</v>
+        <v>133080</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.751976596262329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6818591510436415</v>
+        <v>0.6867428423261522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.808316893368662</v>
+        <v>0.8068365615714925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>118</v>
@@ -3703,19 +3703,19 @@
         <v>138998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122150</v>
+        <v>123214</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>154214</v>
+        <v>153966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6342222100953211</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5573466554480168</v>
+        <v>0.5622007999502777</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7036513368880399</v>
+        <v>0.7025196046474856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>247</v>
@@ -3724,19 +3724,19 @@
         <v>263030</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>243358</v>
+        <v>242807</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>280917</v>
+        <v>282183</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6847879619992215</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6335739718742571</v>
+        <v>0.6321385377786316</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7313574941818147</v>
+        <v>0.7346522905882454</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>26148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17422</v>
+        <v>18255</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34411</v>
+        <v>35889</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2273049612520511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1514536136091184</v>
+        <v>0.1586886749950686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2991359562203204</v>
+        <v>0.3119802179111623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -3849,19 +3849,19 @@
         <v>54264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42339</v>
+        <v>42010</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67055</v>
+        <v>66971</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3805438052973171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2969129487127763</v>
+        <v>0.2946086488146413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4702416916634096</v>
+        <v>0.469653516497019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -3870,19 +3870,19 @@
         <v>80412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65973</v>
+        <v>65403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97727</v>
+        <v>97168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3121210079212163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2560751589534286</v>
+        <v>0.2538635792645888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.379330210000632</v>
+        <v>0.3771609130256895</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>88887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80624</v>
+        <v>79146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97613</v>
+        <v>96780</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7726950387479489</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7008640437796796</v>
+        <v>0.6880197820888376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8485463863908815</v>
+        <v>0.8413113250049311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -3920,19 +3920,19 @@
         <v>88332</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75541</v>
+        <v>75625</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100257</v>
+        <v>100586</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6194561947026829</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5297583083365903</v>
+        <v>0.530346483502981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7030870512872236</v>
+        <v>0.7053913511853587</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>160</v>
@@ -3941,19 +3941,19 @@
         <v>177219</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>159904</v>
+        <v>160463</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>191658</v>
+        <v>192228</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6878789920787837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6206697899993682</v>
+        <v>0.6228390869743106</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7439248410465715</v>
+        <v>0.7461364207354112</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>29508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20705</v>
+        <v>21282</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40401</v>
+        <v>40780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1689872036333781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1185712895955791</v>
+        <v>0.1218767434518381</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2313692424882282</v>
+        <v>0.2335370725076359</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -4066,19 +4066,19 @@
         <v>82938</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66534</v>
+        <v>67403</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101025</v>
+        <v>99768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3416164692432166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.274050849353109</v>
+        <v>0.2776301496641509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4161149977028852</v>
+        <v>0.4109369514012594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -4087,19 +4087,19 @@
         <v>112446</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95228</v>
+        <v>95203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132325</v>
+        <v>133687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2693973421539382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2281454861283029</v>
+        <v>0.2280860111547775</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3170219133550221</v>
+        <v>0.3202839445534269</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>145110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134217</v>
+        <v>133838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153913</v>
+        <v>153336</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8310127963666218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7686307575117713</v>
+        <v>0.7664629274923647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8814287104044207</v>
+        <v>0.8781232565481621</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -4137,19 +4137,19 @@
         <v>159843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141756</v>
+        <v>143013</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>176247</v>
+        <v>175378</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6583835307567834</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.583885002297113</v>
+        <v>0.5890630485987408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7259491506468908</v>
+        <v>0.7223698503358501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>292</v>
@@ -4158,19 +4158,19 @@
         <v>304954</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>285075</v>
+        <v>283713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>322172</v>
+        <v>322197</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7306026578460618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6829780866449782</v>
+        <v>0.6797160554465731</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7718545138716972</v>
+        <v>0.7719139888452224</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>124343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105692</v>
+        <v>105867</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142358</v>
+        <v>143017</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2102780061344388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1787360360020671</v>
+        <v>0.1790318553672144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.240743027232943</v>
+        <v>0.2418572840000608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>223</v>
@@ -4283,19 +4283,19 @@
         <v>277505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249618</v>
+        <v>248112</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307064</v>
+        <v>305455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3567220130985952</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3208745113644059</v>
+        <v>0.3189387289006796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.394719043445698</v>
+        <v>0.3926505389474234</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>362</v>
@@ -4304,19 +4304,19 @@
         <v>401848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>367141</v>
+        <v>364334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>436564</v>
+        <v>433164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2934787248540552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2681313873976914</v>
+        <v>0.2660814686154976</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3188325168477419</v>
+        <v>0.3163489396928801</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>466985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448970</v>
+        <v>448311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>485636</v>
+        <v>485461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7897219938655612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7592569727670571</v>
+        <v>0.7581427159999391</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8212639639979329</v>
+        <v>0.8209681446327856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>432</v>
@@ -4354,19 +4354,19 @@
         <v>500426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>470867</v>
+        <v>472476</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>528313</v>
+        <v>529819</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6432779869014048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.605280956554302</v>
+        <v>0.6073494610525761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6791254886355941</v>
+        <v>0.6810612710993202</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>920</v>
@@ -4375,19 +4375,19 @@
         <v>967411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>932695</v>
+        <v>936095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1002118</v>
+        <v>1004925</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7065212751459448</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6811674831522579</v>
+        <v>0.6836510603071196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7318686126023086</v>
+        <v>0.7339185313845019</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>53903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44412</v>
+        <v>44550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64154</v>
+        <v>63847</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3300576280957175</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2719436469616569</v>
+        <v>0.2727881126141755</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3928242448354599</v>
+        <v>0.3909440197500846</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -4740,19 +4740,19 @@
         <v>88367</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78923</v>
+        <v>79110</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98015</v>
+        <v>97103</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4655717599824958</v>
+        <v>0.4655717599824957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4158158663334723</v>
+        <v>0.4168021092931434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5164045938383369</v>
+        <v>0.5116003544522529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>292</v>
@@ -4761,19 +4761,19 @@
         <v>142270</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129356</v>
+        <v>128937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>157679</v>
+        <v>156441</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4028973751424239</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3663260959125673</v>
+        <v>0.3651404730263808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.446535353776483</v>
+        <v>0.4430278154885578</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>109411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99160</v>
+        <v>99467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118902</v>
+        <v>118764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6699423719042825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6071757551645398</v>
+        <v>0.6090559802499154</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7280563530383418</v>
+        <v>0.7272118873858245</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>241</v>
@@ -4811,19 +4811,19 @@
         <v>101436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91788</v>
+        <v>92700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110880</v>
+        <v>110693</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5344282400175043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4835954061616625</v>
+        <v>0.488399645547747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5841841336665275</v>
+        <v>0.5831978907068568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>405</v>
@@ -4832,19 +4832,19 @@
         <v>210847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>195438</v>
+        <v>196676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>223761</v>
+        <v>224180</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.597102624857576</v>
+        <v>0.5971026248575761</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5534646462235172</v>
+        <v>0.556972184511442</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6336739040874327</v>
+        <v>0.634859526973618</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>45138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36507</v>
+        <v>36254</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55849</v>
+        <v>55397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2532951749657953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.204859310296128</v>
+        <v>0.2034392874027856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3133996013677641</v>
+        <v>0.3108629371926314</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -4957,19 +4957,19 @@
         <v>100236</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87981</v>
+        <v>90242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111511</v>
+        <v>112127</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4163903951721901</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3654804788827315</v>
+        <v>0.3748733622322034</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4632247057737711</v>
+        <v>0.4657856940921709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>255</v>
@@ -4978,19 +4978,19 @@
         <v>145374</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131285</v>
+        <v>130649</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159745</v>
+        <v>160921</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3470133254823569</v>
+        <v>0.3470133254823568</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3133806801701045</v>
+        <v>0.311864460014579</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3813156224529886</v>
+        <v>0.3841230933687675</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>133066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>122355</v>
+        <v>122807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141697</v>
+        <v>141950</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7467048250342047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6866003986322359</v>
+        <v>0.6891370628073686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7951406897038718</v>
+        <v>0.7965607125972145</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>261</v>
@@ -5028,19 +5028,19 @@
         <v>140491</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>129216</v>
+        <v>128600</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>152746</v>
+        <v>150485</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.58360960482781</v>
+        <v>0.5836096048278099</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5367752942262288</v>
+        <v>0.534214305907829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6345195211172685</v>
+        <v>0.6251266377677968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>445</v>
@@ -5049,19 +5049,19 @@
         <v>273556</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259185</v>
+        <v>258009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>287645</v>
+        <v>288281</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.652986674517643</v>
+        <v>0.6529866745176431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6186843775470114</v>
+        <v>0.6158769066312323</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6866193198298954</v>
+        <v>0.688135539985421</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>32238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23463</v>
+        <v>24316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41302</v>
+        <v>43063</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2038329963635564</v>
+        <v>0.2038329963635563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.148353442161234</v>
+        <v>0.1537476532810893</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2611461669002308</v>
+        <v>0.2722810916382811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -5174,19 +5174,19 @@
         <v>67756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58378</v>
+        <v>58747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78836</v>
+        <v>77578</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3884187506802171</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3346587421892599</v>
+        <v>0.3367723001514938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4519361027330284</v>
+        <v>0.4447232938880759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -5195,19 +5195,19 @@
         <v>99994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>86501</v>
+        <v>86346</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112923</v>
+        <v>115044</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3006445217628342</v>
+        <v>0.3006445217628343</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2600759043148321</v>
+        <v>0.2596118618108126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3395172951899877</v>
+        <v>0.3458948278680127</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>125919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116855</v>
+        <v>115094</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134694</v>
+        <v>133841</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7961670036364439</v>
+        <v>0.7961670036364438</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.738853833099769</v>
+        <v>0.727718908361719</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8516465578387657</v>
+        <v>0.8462523467189108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>177</v>
@@ -5245,19 +5245,19 @@
         <v>106685</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95605</v>
+        <v>96863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116063</v>
+        <v>115694</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6115812493197829</v>
+        <v>0.6115812493197831</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5480638972669715</v>
+        <v>0.555276706111924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.66534125781074</v>
+        <v>0.6632276998485062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>328</v>
@@ -5266,19 +5266,19 @@
         <v>232604</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219675</v>
+        <v>217554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246097</v>
+        <v>246252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6993554782371658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.660482704810012</v>
+        <v>0.6541051721319873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7399240956851678</v>
+        <v>0.7403881381891874</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>44178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35815</v>
+        <v>35877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53340</v>
+        <v>54618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2098405519803756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1701167160344196</v>
+        <v>0.1704135198888417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2533602311773404</v>
+        <v>0.2594270431555181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -5391,19 +5391,19 @@
         <v>114402</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101865</v>
+        <v>101906</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127454</v>
+        <v>126749</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3901226310374185</v>
+        <v>0.3901226310374186</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3473709406047071</v>
+        <v>0.3475088248358832</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4346293540402253</v>
+        <v>0.4322261906553585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>267</v>
@@ -5412,19 +5412,19 @@
         <v>158581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>143124</v>
+        <v>141431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174674</v>
+        <v>174138</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3147818807959762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2841015885566201</v>
+        <v>0.2807397317812788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3467268045897979</v>
+        <v>0.3456628031182918</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>166354</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>157192</v>
+        <v>155914</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174717</v>
+        <v>174655</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7901594480196245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7466397688226598</v>
+        <v>0.7405729568444817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8298832839655804</v>
+        <v>0.8295864801111581</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -5462,19 +5462,19 @@
         <v>178845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>165793</v>
+        <v>166498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191382</v>
+        <v>191341</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6098773689625816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5653706459597748</v>
+        <v>0.5677738093446416</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6526290593952928</v>
+        <v>0.6524911751641167</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>574</v>
@@ -5483,19 +5483,19 @@
         <v>345198</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>329105</v>
+        <v>329641</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>360655</v>
+        <v>362348</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6852181192040238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.653273195410202</v>
+        <v>0.6543371968817081</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7158984114433797</v>
+        <v>0.7192602682187211</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>175457</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156453</v>
+        <v>156973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194989</v>
+        <v>194508</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2470505687383007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2202914860407027</v>
+        <v>0.2210239877269374</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2745527401893122</v>
+        <v>0.2738753096692194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>696</v>
@@ -5608,19 +5608,19 @@
         <v>370762</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>349079</v>
+        <v>349660</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>392489</v>
+        <v>392807</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4127747987022242</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3886350501782195</v>
+        <v>0.3892821838180633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4369645196111522</v>
+        <v>0.4373185801282437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>964</v>
@@ -5629,19 +5629,19 @@
         <v>546218</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>515865</v>
+        <v>515536</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>576254</v>
+        <v>577113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.339598561221061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3207268002662697</v>
+        <v>0.3205222179205318</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3582726036959119</v>
+        <v>0.3588064208908613</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>534750</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>515218</v>
+        <v>515699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>553754</v>
+        <v>553234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7529494312616993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7254472598106876</v>
+        <v>0.7261246903307806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7797085139592973</v>
+        <v>0.7789760122730627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1002</v>
@@ -5679,19 +5679,19 @@
         <v>527456</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>505729</v>
+        <v>505411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549139</v>
+        <v>548558</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5872252012977758</v>
+        <v>0.5872252012977759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5630354803888477</v>
+        <v>0.5626814198717563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6113649498217802</v>
+        <v>0.6107178161819365</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1752</v>
@@ -5700,19 +5700,19 @@
         <v>1062206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1032170</v>
+        <v>1031311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1092559</v>
+        <v>1092888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6604014387789392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6417273963040884</v>
+        <v>0.6411935791091388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6792731997337307</v>
+        <v>0.6794777820794682</v>
       </c>
     </row>
     <row r="18">
